--- a/biology/Zoologie/Dryopsophus_maculosus/Dryopsophus_maculosus.xlsx
+++ b/biology/Zoologie/Dryopsophus_maculosus/Dryopsophus_maculosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus maculosus est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus maculosus est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord de l'Australie[1]. Elle se rencontre à basse altitude dans le centre du Territoire du Nord et à la frontières au Queensland. Sa zone de répartition est d'environ 557 400 km2[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord de l'Australie. Elle se rencontre à basse altitude dans le centre du Territoire du Nord et à la frontières au Queensland. Sa zone de répartition est d'environ 557 400 km2.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Dryopsophus maculosus[3], un mâle adulte, mesure 47,4 mm. Cette espèce a la face dorsale gris très pâle avec des marques noires bien délimitées. Sa face ventrale est crème et prend une teinte ardoise sombre au niveau mandibulaire.
-Les mâles mesurent de 34 à 55 mm et les femelles de 38 à 55 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Dryopsophus maculosus, un mâle adulte, mesure 47,4 mm. Cette espèce a la face dorsale gris très pâle avec des marques noires bien délimitées. Sa face ventrale est crème et prend une teinte ardoise sombre au niveau mandibulaire.
+Les mâles mesurent de 34 à 55 mm et les femelles de 38 à 55 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, dérivé du latin macula, « tache », lui a été donné en référence à sa livrée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, dérivé du latin macula, « tache », lui a été donné en référence à sa livrée.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tyler &amp; Martin, 1977 : Taxonomic studies in some leptodactylid frogs of the genus Cyclorana Steindachner. Records of the South Australian Museum, vol. 17, no 15, p. 261-276 (texte intégral).</t>
         </is>
